--- a/Output_testing/R1_201907/Country/HKD/MN/MOZAMBIQUE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MOZAMBIQUE_201907_HKD_MN.xlsx
@@ -544,29 +544,37 @@
       <c r="C7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.024211</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-100</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/Output_testing/R1_201907/Country/HKD/MN/MOZAMBIQUE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MOZAMBIQUE_201907_HKD_MN.xlsx
@@ -822,136 +822,493 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>123.148153</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>65.75121748494132</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>270.708341</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>87.88567514841297</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>221.314553</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>89.25020765842974</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>215.343098</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>89.42668943964935</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>142.311516893733</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>5.244376</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>2.800075344603882</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>17.205771</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.585867044946298</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>4.935731</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>1.990447581168099</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>6.165496</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>2.560378768366193</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>44.98497004237736</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.145093</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.3717553402343138</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>2.679713</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.080656190354521</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>4.02554</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.671707701571592</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2.205614</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.7160543143618605</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2.34627</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.9461875953667808</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.33264</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0.9686879904295965</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>24.85929082038203</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.897522</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.7879941924068647</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>6.325174</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.377134623400289</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>5.82509</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.891120035530301</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>5.066716</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.043270309233973</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.44948</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.6019333752177326</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-58.75413282462254</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>RUBBER TYRES, INTERCHANGEABLE TYRE TREADS, TYRE FLAPS AND INNER TUBES FOR WHEELS OF ALL KINDS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.25945</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.5230185924731443</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MARGARINE AND SHORTENING</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1801220618248723</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.509018</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.1652530927840708</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.1145154481446414</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.869319</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.361006788510986</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.8215</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.3411487345402263</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1949217803189458</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.104582</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.3586034123225789</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.765338</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.3086402340151906</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.807129</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.3351808118815804</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>16.71776169087895</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>51.761665</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>27.63656952936741</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>9.319773</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>3.025671611407608</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>10.578625</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>4.266074983287052</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>5.832885</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.422253604952731</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>49.50012712759304</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -983,136 +1340,627 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>50.7413985378547</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>49.25860146214531</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, ROOTS AND TUBERS, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1144,136 +1992,493 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>123.148153</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>65.75971806509079</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>270.708341</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>87.88567514841297</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>221.314553</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>89.25020765842974</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>215.343098</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>89.42668943964935</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>142.311516893733</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>5.244376</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.800437349534008</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>17.205771</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.585867044946298</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4.935731</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>1.990447581168099</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>6.165496</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>2.560378768366193</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>44.98497004237736</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.145093</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.3717553402343138</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>2.679713</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.080656190354521</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>4.02554</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.671707701571592</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2.205614</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.7160543143618605</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2.34627</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.9461875953667808</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.33264</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>0.9686879904295965</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>24.85929082038203</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.897522</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.7879941924068647</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>6.325174</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.377571232860005</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>5.82509</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.891120035530301</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>5.066716</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.043270309233973</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.44948</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.6019333752177326</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-58.75413282462254</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>RUBBER TYRES, INTERCHANGEABLE TYRE TREADS, TYRE FLAPS AND INNER TUBES FOR WHEELS OF ALL KINDS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.25945</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.5230185924731443</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MARGARINE AND SHORTENING</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1801453487248233</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.509018</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.1652530927840708</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.1145154481446414</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.869319</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.361006788510986</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.8215</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.3411487345402263</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1949469805856459</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.104582</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3586034123225789</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.765338</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3086402340151906</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.807129</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.3351808118815804</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>16.71776169087895</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>51.737454</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>27.62721409589962</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>9.319773</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>3.025671611407608</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>10.578625</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>4.266074983287052</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>5.832885</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.422253604952731</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>49.50012712759304</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1305,136 +2510,507 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>48.135274</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>49.28414306594893</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>73.303174</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>60.55451957380981</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>41.209056</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>55.80805921504797</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>19.078627</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>49.79140649132498</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-35.43080432203421</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>9.252064000000001</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>9.472887717047497</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>9.863640999999999</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>8.148187989834286</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>4.362381</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>5.907828055236211</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>8.743893</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>22.81981458517172</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>339.6129608978994</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>0.685589</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.7019523013505826</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>2.700603</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.230922732276088</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>0.841369</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.139438160721413</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>3.977778</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.3812062225573</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>779.0669613259669</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>21.342349</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>21.85173769820885</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>26.674346</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>22.03522874706047</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>17.360506</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>23.51075809286181</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3.388656</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>8.843715449506263</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-58.82167232819822</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>12.627209</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>12.92858901934656</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>4.001452</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.305532219623401</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>2.07606</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.811539274619455</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2.841681</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>7.416219929750439</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>70.64877836108339</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>2.356616</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.946760855129593</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>7.559069</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>10.2369967019539</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.4110435474410021</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-97.91641007642608</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.2772547447996336</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.05150179914413165</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-61.5</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.3031661811394233</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>5.609551</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>5.743437006710232</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>2.123909</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.754525515000084</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.2554458795008552</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
